--- a/data/trans_orig/P44A$analisis-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44A$analisis-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>6620</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2839</v>
+        <v>2577</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10587</v>
+        <v>10834</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4671435873643452</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2003137095117138</v>
+        <v>0.1818364909293396</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.747024984465382</v>
+        <v>0.7644690445536225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -764,19 +764,19 @@
         <v>7657</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3471</v>
+        <v>3412</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13056</v>
+        <v>13061</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3733360980484002</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1692269997557319</v>
+        <v>0.1663444262135514</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6365829831985463</v>
+        <v>0.6368602703074775</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -785,19 +785,19 @@
         <v>14277</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8019</v>
+        <v>8631</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20284</v>
+        <v>20354</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4116688778093339</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2312120477231266</v>
+        <v>0.248859340804895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5848660192128832</v>
+        <v>0.5869052119117056</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>9738</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5279</v>
+        <v>5424</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12831</v>
+        <v>13094</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6871302878411089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3724989303710732</v>
+        <v>0.3827414856345034</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9053626066391715</v>
+        <v>0.9239298213080255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -835,19 +835,19 @@
         <v>12764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7816</v>
+        <v>7464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17031</v>
+        <v>17074</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6223691052162035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3811232839142367</v>
+        <v>0.3639349137198453</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8304267185746876</v>
+        <v>0.832502099106172</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -856,19 +856,19 @@
         <v>22502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15658</v>
+        <v>15806</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28035</v>
+        <v>27661</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6488326228811641</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4514825579361416</v>
+        <v>0.4557652499878183</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.80837555192148</v>
+        <v>0.797585765967174</v>
       </c>
     </row>
     <row r="6">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4728</v>
+        <v>4642</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07343160835899007</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3335912184052567</v>
+        <v>0.327560575320602</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -906,19 +906,19 @@
         <v>9879</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5412</v>
+        <v>5460</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15183</v>
+        <v>14257</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4816721082908291</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2638896447598468</v>
+        <v>0.2662091774201004</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7402946648245422</v>
+        <v>0.6951701674402304</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -927,19 +927,19 @@
         <v>10919</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5627</v>
+        <v>5649</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17313</v>
+        <v>17387</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3148518118785179</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.162256534607339</v>
+        <v>0.1628894550026166</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4992153834908752</v>
+        <v>0.5013294019143326</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>3092</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6866</v>
+        <v>7110</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2182061465034968</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0</v>
+        <v>0.06198084278228379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4845092257882382</v>
+        <v>0.5017137913951882</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6173</v>
+        <v>6258</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09965556340791482</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3009837947666453</v>
+        <v>0.3051336190337403</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -998,19 +998,19 @@
         <v>5136</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1992</v>
+        <v>1949</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10260</v>
+        <v>10446</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1480991730330238</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05744408620328972</v>
+        <v>0.05619171979900695</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2958330630930919</v>
+        <v>0.3012060038713673</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>12368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6884</v>
+        <v>6877</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19275</v>
+        <v>18654</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3143743586640365</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1749763394841377</v>
+        <v>0.1747955353234928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4899588382822286</v>
+        <v>0.4741652574607844</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1052,19 +1052,19 @@
         <v>8211</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3302</v>
+        <v>3454</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14670</v>
+        <v>14529</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2431820010913135</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0977830903376357</v>
+        <v>0.1022896150610676</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.434476401223003</v>
+        <v>0.4302983273414609</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -1073,19 +1073,19 @@
         <v>20579</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12850</v>
+        <v>13146</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29109</v>
+        <v>29022</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2814934700195133</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1757786459109882</v>
+        <v>0.1798289304635088</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3981793008949375</v>
+        <v>0.3969948215384598</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>24494</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17540</v>
+        <v>17403</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30596</v>
+        <v>30940</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6226158806518217</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4458507345746879</v>
+        <v>0.4423592291734443</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7777028339720224</v>
+        <v>0.7864567226082453</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -1123,19 +1123,19 @@
         <v>21590</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14792</v>
+        <v>15279</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26621</v>
+        <v>27621</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6394294009796961</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4381027974456616</v>
+        <v>0.4525186884592113</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.788444668063852</v>
+        <v>0.8180718204984118</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>41</v>
@@ -1144,19 +1144,19 @@
         <v>46084</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>37095</v>
+        <v>35519</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>54724</v>
+        <v>54196</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6303813699328662</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5074165617223471</v>
+        <v>0.485858982493804</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7485669018897803</v>
+        <v>0.7413462298835569</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>7494</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3114</v>
+        <v>3197</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15039</v>
+        <v>14275</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1904977591519512</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07914533529251774</v>
+        <v>0.0812635037510314</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3822832128480158</v>
+        <v>0.3628537296517441</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1194,19 +1194,19 @@
         <v>9990</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5178</v>
+        <v>4526</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16739</v>
+        <v>17277</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2958702085047969</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1533542109366599</v>
+        <v>0.134060892371704</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4957763113255758</v>
+        <v>0.5116944365865145</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1215,19 +1215,19 @@
         <v>17484</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10210</v>
+        <v>9846</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26685</v>
+        <v>26636</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2391650584450297</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1396662073874503</v>
+        <v>0.1346790505316751</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3650162503902698</v>
+        <v>0.3643554748694468</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>6371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12856</v>
+        <v>13063</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1619524051057044</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0545751554260994</v>
+        <v>0.05450105781746465</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3267964696365669</v>
+        <v>0.3320426825448499</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4669</v>
+        <v>5060</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03093540467063452</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1382736722485366</v>
+        <v>0.1498558198308609</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1286,19 +1286,19 @@
         <v>7416</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2299</v>
+        <v>3066</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15829</v>
+        <v>15146</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1014409183573635</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03145323882608271</v>
+        <v>0.04194254938347942</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2165180912291637</v>
+        <v>0.2071861129854615</v>
       </c>
     </row>
     <row r="12">
@@ -1319,19 +1319,19 @@
         <v>10306</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5045</v>
+        <v>5185</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16694</v>
+        <v>17285</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3366424157387605</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1647843308765962</v>
+        <v>0.1693683975784523</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.545321215709735</v>
+        <v>0.5646017797623724</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1340,19 +1340,19 @@
         <v>10033</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5669</v>
+        <v>5683</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16079</v>
+        <v>15673</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3196891366736563</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1806274234108675</v>
+        <v>0.1810946863479245</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5123457257381707</v>
+        <v>0.49940833202882</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -1361,19 +1361,19 @@
         <v>20339</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13583</v>
+        <v>13069</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29056</v>
+        <v>29324</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3280606043302872</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2190927998979326</v>
+        <v>0.2107958405737966</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.468661078183217</v>
+        <v>0.4729949702114649</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>22507</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16650</v>
+        <v>16567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26956</v>
+        <v>27126</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7351830767559326</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5438725264294328</v>
+        <v>0.5411636717316529</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8804980361512228</v>
+        <v>0.8860805966833701</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1411,19 +1411,19 @@
         <v>19672</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13006</v>
+        <v>14305</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24391</v>
+        <v>25237</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6268488594591701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4144229456150103</v>
+        <v>0.4558241904895431</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7772067687062543</v>
+        <v>0.8041500474016786</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -1432,19 +1432,19 @@
         <v>42179</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33637</v>
+        <v>33825</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48694</v>
+        <v>49214</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6803439026731414</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5425605369276318</v>
+        <v>0.5455935113292227</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7854194977729277</v>
+        <v>0.7938200111587964</v>
       </c>
     </row>
     <row r="14">
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6464</v>
+        <v>6631</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06853740927947596</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2111596638130724</v>
+        <v>0.2165945222819357</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1482,19 +1482,19 @@
         <v>9574</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4873</v>
+        <v>4933</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15626</v>
+        <v>14923</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.305077092204656</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1552612707056917</v>
+        <v>0.1571883256009127</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4979171649188093</v>
+        <v>0.4755214239128552</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -1503,19 +1503,19 @@
         <v>11672</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6663</v>
+        <v>6575</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19866</v>
+        <v>19105</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1882746554894032</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1074709512046411</v>
+        <v>0.106057449613834</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3204281281044148</v>
+        <v>0.3081658062755977</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>4979</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10474</v>
+        <v>10178</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1626445172753532</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05803567791118123</v>
+        <v>0.05774500771924461</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3421283443926428</v>
+        <v>0.332457021446067</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -1553,19 +1553,19 @@
         <v>3879</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9072</v>
+        <v>8594</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1236159152579814</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03085256674157452</v>
+        <v>0.03045250373226789</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2890718749735604</v>
+        <v>0.2738578827874091</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -1574,19 +1574,19 @@
         <v>8859</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3975</v>
+        <v>4701</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14939</v>
+        <v>15357</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1428880972480993</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06412111259615769</v>
+        <v>0.0758271225137382</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.240967397941405</v>
+        <v>0.2477011334510259</v>
       </c>
     </row>
     <row r="16">
@@ -1607,19 +1607,19 @@
         <v>11777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6474</v>
+        <v>6617</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16985</v>
+        <v>17124</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.466588236828098</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2565148030866036</v>
+        <v>0.262166109181571</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6729449440824535</v>
+        <v>0.6784358048565122</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1628,19 +1628,19 @@
         <v>7871</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3380</v>
+        <v>3554</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12511</v>
+        <v>12710</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3696238419617334</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1587271503066512</v>
+        <v>0.1669095236416478</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.58752211562979</v>
+        <v>0.5968388176358089</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1649,19 +1649,19 @@
         <v>19648</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13196</v>
+        <v>13565</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26619</v>
+        <v>26913</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4222163147056037</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2835613665143014</v>
+        <v>0.2915082960148718</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5720301430541771</v>
+        <v>0.5783383084984732</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>10352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5171</v>
+        <v>6062</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15568</v>
+        <v>15706</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4101333903095518</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2048719702957844</v>
+        <v>0.2401603499729555</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6167861543507758</v>
+        <v>0.622281186074774</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1699,19 +1699,19 @@
         <v>12102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7599</v>
+        <v>7098</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16662</v>
+        <v>16636</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5683167848707081</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3568416735812132</v>
+        <v>0.3333127777685376</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7824548313613175</v>
+        <v>0.7811930368875722</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -1720,19 +1720,19 @@
         <v>22454</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15879</v>
+        <v>15077</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28819</v>
+        <v>28996</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4825197675381499</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3412199567317724</v>
+        <v>0.3239914527561029</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6192937593058986</v>
+        <v>0.6231084858612279</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>7259</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3137</v>
+        <v>3126</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12624</v>
+        <v>11553</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2876057297140144</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1242868257702413</v>
+        <v>0.1238319754577359</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5001770902810311</v>
+        <v>0.4577368008174125</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1770,19 +1770,19 @@
         <v>7840</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4338</v>
+        <v>3520</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12623</v>
+        <v>12407</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.368175421196034</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2037137172469487</v>
+        <v>0.1653004276015031</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5927552569767492</v>
+        <v>0.5826344716829608</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -1791,19 +1791,19 @@
         <v>15099</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9487</v>
+        <v>8460</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22535</v>
+        <v>21782</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3244752639466638</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2038785435750926</v>
+        <v>0.1817945094945728</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.484258677181916</v>
+        <v>0.4680811424498654</v>
       </c>
     </row>
     <row r="19">
@@ -1820,19 +1820,19 @@
         <v>5204</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2022</v>
+        <v>2050</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10352</v>
+        <v>9497</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2061899766011466</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08010510680238835</v>
+        <v>0.08121712735496639</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.410130978192387</v>
+        <v>0.376263313704383</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6671</v>
+        <v>6640</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1025544488126821</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3132433724541926</v>
+        <v>0.311803953179569</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1862,19 +1862,19 @@
         <v>7388</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3208</v>
+        <v>3258</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14045</v>
+        <v>13827</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1587652742195048</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06893718936614289</v>
+        <v>0.07002004453568758</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3018155973404099</v>
+        <v>0.2971210505864869</v>
       </c>
     </row>
     <row r="20">
@@ -1895,19 +1895,19 @@
         <v>41070</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3755323822530451</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -1916,19 +1916,19 @@
         <v>33771</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23142</v>
+        <v>25176</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43857</v>
+        <v>44416</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3157660353698978</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2163826580787245</v>
+        <v>0.2354014365920429</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.410063196192091</v>
+        <v>0.4152939978097556</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>69</v>
@@ -1937,19 +1937,19 @@
         <v>74842</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>60346</v>
+        <v>60311</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>90360</v>
+        <v>90409</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3459828250594279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.278966699221934</v>
+        <v>0.2788090849800882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4177179280495245</v>
+        <v>0.4179451930885836</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>67090</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6134476704769855</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>61</v>
@@ -1987,19 +1987,19 @@
         <v>66129</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54255</v>
+        <v>56479</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>76687</v>
+        <v>77299</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6183072103378344</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5072840622761006</v>
+        <v>0.5280863229691877</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7170285641097613</v>
+        <v>0.722748308415596</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>118</v>
@@ -2008,19 +2008,19 @@
         <v>133220</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>119069</v>
+        <v>117633</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>147821</v>
+        <v>147738</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6158503144152803</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.550433936125643</v>
+        <v>0.5437987943811161</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6833501931408523</v>
+        <v>0.6829659587101463</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>17892</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1636001922329219</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2058,19 +2058,19 @@
         <v>37283</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28130</v>
+        <v>27404</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49883</v>
+        <v>47242</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3485983603345983</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2630144275260097</v>
+        <v>0.2562301120616553</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4664131157006827</v>
+        <v>0.4417136915463675</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2079,19 +2079,19 @@
         <v>55176</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42559</v>
+        <v>42604</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69475</v>
+        <v>68923</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2550666149628069</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1967439282811159</v>
+        <v>0.1969485642965454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3211729366833092</v>
+        <v>0.3186196956740068</v>
       </c>
     </row>
     <row r="23">
@@ -2108,19 +2108,19 @@
         <v>19647</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1796449615522855</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -2129,19 +2129,19 @@
         <v>9152</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4031</v>
+        <v>4111</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16699</v>
+        <v>16987</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08556876449571599</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03769291518248413</v>
+        <v>0.03844152127638911</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1561383880379678</v>
+        <v>0.158832619243896</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>27</v>
@@ -2150,19 +2150,19 @@
         <v>28799</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20064</v>
+        <v>20282</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>41728</v>
+        <v>41737</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1331319971424602</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09275409541641207</v>
+        <v>0.093762127756435</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1929018547174938</v>
+        <v>0.1929437434639666</v>
       </c>
     </row>
     <row r="24">
@@ -2423,19 +2423,19 @@
         <v>9896</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4629</v>
+        <v>5190</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15506</v>
+        <v>15387</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3695068391818115</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.172845363290236</v>
+        <v>0.1937970120731413</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5789758814257481</v>
+        <v>0.5745359677153727</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2457,19 +2457,19 @@
         <v>9896</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5301</v>
+        <v>4584</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15762</v>
+        <v>16271</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2616708946238977</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.140160135148914</v>
+        <v>0.1212089210460931</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4167857262721845</v>
+        <v>0.4302455493527371</v>
       </c>
     </row>
     <row r="5">
@@ -2486,19 +2486,19 @@
         <v>14918</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9373</v>
+        <v>9207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19515</v>
+        <v>20189</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5570211804831491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3499650106609287</v>
+        <v>0.3437832187838993</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7286624064356618</v>
+        <v>0.7538314811906399</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -2507,19 +2507,19 @@
         <v>4879</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1182</v>
+        <v>1223</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8335</v>
+        <v>8282</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4420383193988432</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1071165603214297</v>
+        <v>0.1108385206353818</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7551835582522876</v>
+        <v>0.750427747562753</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -2528,19 +2528,19 @@
         <v>19797</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13356</v>
+        <v>13525</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25647</v>
+        <v>26369</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5234648721332065</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3531445112668896</v>
+        <v>0.357624188265615</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6781477063494299</v>
+        <v>0.6972441058620368</v>
       </c>
     </row>
     <row r="6">
@@ -2557,19 +2557,19 @@
         <v>3239</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>971</v>
+        <v>982</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8717</v>
+        <v>7736</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1209484420727836</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03627013928544799</v>
+        <v>0.03667510904756906</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3254741963989339</v>
+        <v>0.2888619528302118</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -2578,19 +2578,19 @@
         <v>5132</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1855</v>
+        <v>1958</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8768</v>
+        <v>8767</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4650247117659275</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1680973470002842</v>
+        <v>0.1773964513683825</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7944000774141746</v>
+        <v>0.7943288479474661</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -2599,19 +2599,19 @@
         <v>8372</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4082</v>
+        <v>4036</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14836</v>
+        <v>14183</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2213627933321041</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1079252418865388</v>
+        <v>0.1067229721030802</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3922827447912885</v>
+        <v>0.3750339417288193</v>
       </c>
     </row>
     <row r="7">
@@ -2628,19 +2628,19 @@
         <v>3264</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>975</v>
+        <v>989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7901</v>
+        <v>7933</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1218719691206619</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03641534546735507</v>
+        <v>0.03691260520749317</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2950216576228817</v>
+        <v>0.2962042281883574</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4573</v>
+        <v>4363</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09293696883522923</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4143736181952201</v>
+        <v>0.3952640000378411</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2670,19 +2670,19 @@
         <v>4290</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1132</v>
+        <v>1075</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9817</v>
+        <v>9759</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1134276515717035</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02993384805587438</v>
+        <v>0.02842616711997522</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2595904151026784</v>
+        <v>0.2580537326109488</v>
       </c>
     </row>
     <row r="8">
@@ -2703,19 +2703,19 @@
         <v>16587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9597</v>
+        <v>10365</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24325</v>
+        <v>24188</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3165855484124507</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1831626633183357</v>
+        <v>0.197829038475376</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4642576466824274</v>
+        <v>0.4616486413570203</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -2724,19 +2724,19 @@
         <v>13683</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7504</v>
+        <v>7579</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20314</v>
+        <v>20579</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.36160355266793</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1983153206657547</v>
+        <v>0.2002852423226123</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.536842364982263</v>
+        <v>0.5438330383212074</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -2745,19 +2745,19 @@
         <v>30271</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22433</v>
+        <v>21118</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>41225</v>
+        <v>41147</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3354637681215787</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2486021541928863</v>
+        <v>0.2340282646966156</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4568580757499012</v>
+        <v>0.4560019581364708</v>
       </c>
     </row>
     <row r="9">
@@ -2774,19 +2774,19 @@
         <v>27843</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20133</v>
+        <v>20212</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>35511</v>
+        <v>35187</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5314135339836408</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3842587718899324</v>
+        <v>0.385760397404178</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6777597204023569</v>
+        <v>0.6715665535772356</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -2795,19 +2795,19 @@
         <v>22080</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15375</v>
+        <v>15600</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28192</v>
+        <v>28259</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5835041303541638</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4063179236772357</v>
+        <v>0.4122562041639358</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7450364099582079</v>
+        <v>0.7467993845591827</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>44</v>
@@ -2816,19 +2816,19 @@
         <v>49923</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>38684</v>
+        <v>39634</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58830</v>
+        <v>59122</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5532576325687653</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4287017598942623</v>
+        <v>0.439225584827107</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6519618863181568</v>
+        <v>0.6552035187608303</v>
       </c>
     </row>
     <row r="10">
@@ -2845,19 +2845,19 @@
         <v>13309</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7197</v>
+        <v>7596</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21690</v>
+        <v>20827</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.254018130321252</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1373660621455696</v>
+        <v>0.1449711479508713</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.413972215805357</v>
+        <v>0.3975008470380212</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -2866,19 +2866,19 @@
         <v>9227</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4433</v>
+        <v>4356</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16140</v>
+        <v>16095</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2438319006911432</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1171615219808908</v>
+        <v>0.1151104573701074</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4265334262760062</v>
+        <v>0.4253539718358354</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -2887,19 +2887,19 @@
         <v>22536</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14693</v>
+        <v>14472</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31872</v>
+        <v>32174</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2497465531124196</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1628328053377677</v>
+        <v>0.1603858321501878</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.353216135638629</v>
+        <v>0.356562478989501</v>
       </c>
     </row>
     <row r="11">
@@ -2916,19 +2916,19 @@
         <v>4133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1052</v>
+        <v>974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9583</v>
+        <v>9380</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07889039587952661</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02007054591087255</v>
+        <v>0.01859649196320511</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1828908135273254</v>
+        <v>0.1790160942347283</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -2937,19 +2937,19 @@
         <v>3257</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8084</v>
+        <v>7933</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08608363084761124</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02726707240009337</v>
+        <v>0.02717410243758422</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2136248845600525</v>
+        <v>0.2096354528832525</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -2958,19 +2958,19 @@
         <v>7391</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3149</v>
+        <v>3159</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13957</v>
+        <v>14633</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08190686612054925</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03489414164669459</v>
+        <v>0.03501141494059008</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1546699797438113</v>
+        <v>0.1621652381515242</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>18492</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12085</v>
+        <v>11900</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25633</v>
+        <v>25720</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4211161049030642</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2752091418229001</v>
+        <v>0.2709985238790555</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5837427871475046</v>
+        <v>0.5857354566904319</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -3012,19 +3012,19 @@
         <v>10076</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5884</v>
+        <v>5868</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16468</v>
+        <v>15909</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3230276614277332</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1886406569533858</v>
+        <v>0.1881296169676694</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.527930681032542</v>
+        <v>0.5100041975502747</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>28</v>
@@ -3033,19 +3033,19 @@
         <v>28568</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20354</v>
+        <v>20021</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38553</v>
+        <v>37362</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3803774579300727</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2710053765988341</v>
+        <v>0.2665743270275009</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5133264325901694</v>
+        <v>0.4974753156763997</v>
       </c>
     </row>
     <row r="13">
@@ -3062,19 +3062,19 @@
         <v>17877</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11493</v>
+        <v>12070</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24938</v>
+        <v>26007</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.407115924652855</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2617360906098688</v>
+        <v>0.2748696735962153</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5679154479848048</v>
+        <v>0.5922744133173933</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3083,19 +3083,19 @@
         <v>18301</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12818</v>
+        <v>12774</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23528</v>
+        <v>23829</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5867035534725397</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4109213921200069</v>
+        <v>0.409509964688667</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7542663916673882</v>
+        <v>0.7639159519165251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -3104,19 +3104,19 @@
         <v>36178</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27505</v>
+        <v>27676</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44766</v>
+        <v>45301</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4817032741099985</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3662199771491469</v>
+        <v>0.3684958192431795</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5960592507479981</v>
+        <v>0.6031714985640378</v>
       </c>
     </row>
     <row r="14">
@@ -3133,19 +3133,19 @@
         <v>13427</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7819</v>
+        <v>7805</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20314</v>
+        <v>20826</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3057821523326098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1780750279130407</v>
+        <v>0.1777449032712217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4626085355179709</v>
+        <v>0.4742718719279067</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -3154,19 +3154,19 @@
         <v>8054</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3851</v>
+        <v>3798</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13361</v>
+        <v>13512</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2581941058462242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1234720483761756</v>
+        <v>0.1217606958328055</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4283320301801543</v>
+        <v>0.4331680439122892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -3175,19 +3175,19 @@
         <v>21481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14234</v>
+        <v>14232</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30503</v>
+        <v>30137</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2860176157852362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1895224736888795</v>
+        <v>0.1894931296979765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4061443290575768</v>
+        <v>0.4012649347881893</v>
       </c>
     </row>
     <row r="15">
@@ -3204,19 +3204,19 @@
         <v>5201</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1624</v>
+        <v>1544</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11829</v>
+        <v>11900</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.118438980647816</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.036974530724737</v>
+        <v>0.03515344770443457</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2693752162509804</v>
+        <v>0.2710086536524668</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -3225,19 +3225,19 @@
         <v>4068</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1013</v>
+        <v>1034</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8866</v>
+        <v>9353</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1304104601889035</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03246469617611752</v>
+        <v>0.03313739541878917</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2842356795984773</v>
+        <v>0.2998585557283996</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>8</v>
@@ -3246,19 +3246,19 @@
         <v>9269</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4202</v>
+        <v>4403</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17432</v>
+        <v>16902</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.123411043222052</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05595501942901156</v>
+        <v>0.05862885972364276</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2321082945334738</v>
+        <v>0.2250446424140864</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>13264</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8419</v>
+        <v>8376</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19133</v>
+        <v>19011</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3624338361206457</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2300316850147893</v>
+        <v>0.2288705825196093</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5227975853306779</v>
+        <v>0.5194422885753747</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3300,19 +3300,19 @@
         <v>15729</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9234</v>
+        <v>9056</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22644</v>
+        <v>22706</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4362328373610414</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2561110968121784</v>
+        <v>0.2511696502481235</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.628013652470947</v>
+        <v>0.6297452574372041</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -3321,19 +3321,19 @@
         <v>28993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20271</v>
+        <v>21582</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37198</v>
+        <v>37490</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3990585124499128</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.279006894260834</v>
+        <v>0.2970568428287098</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5119946883448887</v>
+        <v>0.5160073812172131</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>22065</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16793</v>
+        <v>16117</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27620</v>
+        <v>27433</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.602914196278108</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4588400045973184</v>
+        <v>0.4403885181263925</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.754698364889636</v>
+        <v>0.7495634088987813</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -3371,19 +3371,19 @@
         <v>19880</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13530</v>
+        <v>11980</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26854</v>
+        <v>26183</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5513756178099072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3752429467745942</v>
+        <v>0.3322743048744375</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7447827753480855</v>
+        <v>0.7261722497170877</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -3392,19 +3392,19 @@
         <v>41946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32843</v>
+        <v>32274</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50168</v>
+        <v>50415</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.577336834482659</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.452045714472484</v>
+        <v>0.4442201920518934</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6905036365097977</v>
+        <v>0.6939071390391812</v>
       </c>
     </row>
     <row r="18">
@@ -3421,19 +3421,19 @@
         <v>6449</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2523</v>
+        <v>3059</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12006</v>
+        <v>12045</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1762233953588182</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06894617606963131</v>
+        <v>0.08357315060298058</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3280419501611837</v>
+        <v>0.3291263903501612</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -3442,19 +3442,19 @@
         <v>7844</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2991</v>
+        <v>3447</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14527</v>
+        <v>14293</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2175547447641412</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0829533570521914</v>
+        <v>0.09559654235707747</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4028885833710376</v>
+        <v>0.396423052557317</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -3463,19 +3463,19 @@
         <v>14294</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8290</v>
+        <v>8165</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22204</v>
+        <v>23402</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1967351539026888</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.114098185001791</v>
+        <v>0.1123766927541813</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3056096419452782</v>
+        <v>0.3220960893597473</v>
       </c>
     </row>
     <row r="19">
@@ -3492,19 +3492,19 @@
         <v>4476</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1710</v>
+        <v>1733</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9092</v>
+        <v>9116</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1223153469940644</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04672463676948384</v>
+        <v>0.04734623785032729</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2484397093475688</v>
+        <v>0.2490821132281424</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6115</v>
+        <v>5910</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03342336612582406</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1696076061236316</v>
+        <v>0.1639229787837141</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3534,19 +3534,19 @@
         <v>5682</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2037</v>
+        <v>2239</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11607</v>
+        <v>11106</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07820038645467092</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02804257630930435</v>
+        <v>0.03081315547382065</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1597599845995913</v>
+        <v>0.1528629954260586</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>58240</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47250</v>
+        <v>48049</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71787</v>
+        <v>71667</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3647133976810025</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2958959896920056</v>
+        <v>0.3008937213192656</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4495511935597863</v>
+        <v>0.448797313038644</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -3588,19 +3588,19 @@
         <v>39488</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28209</v>
+        <v>29942</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50858</v>
+        <v>51690</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3400458024741593</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2429139789973114</v>
+        <v>0.2578433312882236</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4379549935852354</v>
+        <v>0.4451216788160562</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>92</v>
@@ -3609,19 +3609,19 @@
         <v>97728</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>80547</v>
+        <v>81319</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>114106</v>
+        <v>113531</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.354327524701081</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2920361017237663</v>
+        <v>0.2948352761696253</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4137089365894571</v>
+        <v>0.4116231887513355</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>82704</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>69344</v>
+        <v>70837</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>94686</v>
+        <v>95528</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.517915093555665</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.434252118432943</v>
+        <v>0.4436016590888513</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.592952418997872</v>
+        <v>0.5982211959955898</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -3659,19 +3659,19 @@
         <v>65140</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>53151</v>
+        <v>52865</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>76504</v>
+        <v>76072</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5609425123724595</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4577022590716825</v>
+        <v>0.4552417301709759</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6587974738730985</v>
+        <v>0.6550825714658608</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>136</v>
@@ -3680,19 +3680,19 @@
         <v>147844</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>130786</v>
+        <v>131988</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>166187</v>
+        <v>164616</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5360310591671462</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4741864724804266</v>
+        <v>0.4785434536724951</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6025356556263511</v>
+        <v>0.5968423588087639</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>36425</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26215</v>
+        <v>25938</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48678</v>
+        <v>49331</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2281053014149002</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1641662239015072</v>
+        <v>0.1624285241887999</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.30483426347349</v>
+        <v>0.3089244845355781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -3730,19 +3730,19 @@
         <v>30257</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22603</v>
+        <v>21659</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42315</v>
+        <v>41665</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2605536215041537</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1946421719066587</v>
+        <v>0.1865110828095554</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3643862360407529</v>
+        <v>0.3587874858519958</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -3751,19 +3751,19 @@
         <v>66682</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52636</v>
+        <v>51837</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81991</v>
+        <v>81987</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2417671167654833</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.190838787744294</v>
+        <v>0.1879438834550776</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2972721437866863</v>
+        <v>0.2972554138515522</v>
       </c>
     </row>
     <row r="23">
@@ -3780,19 +3780,19 @@
         <v>17075</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10141</v>
+        <v>10438</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25942</v>
+        <v>26707</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1069266918406879</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06350833870925576</v>
+        <v>0.06536828087019228</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1624571092941199</v>
+        <v>0.1672472178264327</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -3801,19 +3801,19 @@
         <v>9556</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4315</v>
+        <v>4434</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17804</v>
+        <v>16516</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08229093583507152</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.037157305879423</v>
+        <v>0.0381829052693855</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1533160264765593</v>
+        <v>0.1422265675815723</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -3822,19 +3822,19 @@
         <v>26631</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17878</v>
+        <v>17129</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38244</v>
+        <v>38671</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09655422421694124</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06481844291074078</v>
+        <v>0.06210430274424061</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1386598098097961</v>
+        <v>0.1402062856021956</v>
       </c>
     </row>
     <row r="24">
@@ -4095,19 +4095,19 @@
         <v>13472</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7042</v>
+        <v>7396</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21495</v>
+        <v>21582</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1418213256456552</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07413437353418725</v>
+        <v>0.07785475648262523</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2262710955752752</v>
+        <v>0.2271860463735503</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4116,19 +4116,19 @@
         <v>7720</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4263</v>
+        <v>4180</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12752</v>
+        <v>13072</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1005871401482334</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05554032136701817</v>
+        <v>0.05446519304738856</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1661532807965006</v>
+        <v>0.1703244072135709</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -4137,19 +4137,19 @@
         <v>21192</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14390</v>
+        <v>14104</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31597</v>
+        <v>32036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1233947090009151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08378978110605947</v>
+        <v>0.0821234144975687</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1839771752802681</v>
+        <v>0.1865364981065952</v>
       </c>
     </row>
     <row r="5">
@@ -4166,19 +4166,19 @@
         <v>26533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19096</v>
+        <v>18755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37369</v>
+        <v>37710</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2793055333000332</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2010259541137503</v>
+        <v>0.1974280289322131</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3933790542427031</v>
+        <v>0.3969732277586268</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -4187,19 +4187,19 @@
         <v>19605</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13997</v>
+        <v>14322</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26034</v>
+        <v>26765</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2554479307043487</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1823790704044798</v>
+        <v>0.1866071612489481</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3392101651136052</v>
+        <v>0.3487440191959135</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -4208,19 +4208,19 @@
         <v>46137</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35839</v>
+        <v>35987</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57573</v>
+        <v>56380</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2686441150668363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2086803301194178</v>
+        <v>0.2095382293398852</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3352316855946857</v>
+        <v>0.3282829457173623</v>
       </c>
     </row>
     <row r="6">
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5637</v>
+        <v>5407</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01183428058345889</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05934455841144962</v>
+        <v>0.05691717016005762</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4261,16 +4261,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4306</v>
+        <v>3992</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.01505414544542478</v>
+        <v>0.01505414544542479</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05611151524907994</v>
+        <v>0.05201105194217991</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -4279,19 +4279,19 @@
         <v>2280</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6656</v>
+        <v>6839</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.01327316472154922</v>
+        <v>0.01327316472154923</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002528048304917268</v>
+        <v>0.002540693288771179</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03875767926107027</v>
+        <v>0.03982053935000775</v>
       </c>
     </row>
     <row r="7">
@@ -4308,19 +4308,19 @@
         <v>61529</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51244</v>
+        <v>50982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70009</v>
+        <v>70419</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.647704870928731</v>
+        <v>0.6477048709287307</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5394401681332596</v>
+        <v>0.5366764625847832</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7369801792775783</v>
+        <v>0.7412870485866333</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -4329,19 +4329,19 @@
         <v>55338</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48579</v>
+        <v>48696</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60922</v>
+        <v>61041</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7210373177003195</v>
+        <v>0.7210373177003198</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6329701857276429</v>
+        <v>0.6344965036458691</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7937895133401104</v>
+        <v>0.7953490214102497</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>146</v>
@@ -4350,19 +4350,19 @@
         <v>116866</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>106033</v>
+        <v>104300</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>128830</v>
+        <v>127041</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6804754681402453</v>
+        <v>0.6804754681402454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.617398440207806</v>
+        <v>0.6073055657332842</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7501391041743772</v>
+        <v>0.7397204678655661</v>
       </c>
     </row>
     <row r="8">
@@ -4383,19 +4383,19 @@
         <v>26909</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18583</v>
+        <v>19538</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37484</v>
+        <v>37863</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1390162471542198</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09600134532343418</v>
+        <v>0.1009375903750026</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1936468123774779</v>
+        <v>0.1956017146037369</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -4404,19 +4404,19 @@
         <v>17828</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12583</v>
+        <v>12039</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24541</v>
+        <v>24864</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1021257098945691</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07207822345020046</v>
+        <v>0.06896547884056281</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1405794521729956</v>
+        <v>0.1424295243101539</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>57</v>
@@ -4425,19 +4425,19 @@
         <v>44738</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>34329</v>
+        <v>35189</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>56733</v>
+        <v>57214</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1215228908621253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09325057216718508</v>
+        <v>0.09558563847529038</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.154106938616626</v>
+        <v>0.1554130885116059</v>
       </c>
     </row>
     <row r="9">
@@ -4454,19 +4454,19 @@
         <v>80660</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>68495</v>
+        <v>68545</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>93080</v>
+        <v>93686</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4166954751246721</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3538528488440936</v>
+        <v>0.3541090751081593</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4808576321965187</v>
+        <v>0.4839914641599523</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>78</v>
@@ -4475,19 +4475,19 @@
         <v>49882</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41110</v>
+        <v>40658</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60078</v>
+        <v>58784</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2857426377894235</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2354892047916641</v>
+        <v>0.2329020959980447</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.344145362331027</v>
+        <v>0.3367353542846145</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>165</v>
@@ -4496,19 +4496,19 @@
         <v>130542</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>114769</v>
+        <v>114400</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>147623</v>
+        <v>146992</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3545981241199258</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3117539808959388</v>
+        <v>0.3107491548227252</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4009952180060637</v>
+        <v>0.3992814930066761</v>
       </c>
     </row>
     <row r="10">
@@ -4572,19 +4572,19 @@
         <v>124803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>111941</v>
+        <v>112112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>136472</v>
+        <v>137296</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6447439011447292</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.578298238754914</v>
+        <v>0.5791822526600622</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7050267109253684</v>
+        <v>0.7092821674190296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>218</v>
@@ -4593,19 +4593,19 @@
         <v>135264</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126338</v>
+        <v>125071</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143355</v>
+        <v>143003</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7748368870526716</v>
+        <v>0.7748368870526714</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7237061729122676</v>
+        <v>0.7164465417961746</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8211867258678908</v>
+        <v>0.8191668370427498</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>360</v>
@@ -4614,19 +4614,19 @@
         <v>260067</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>245739</v>
+        <v>245085</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>275929</v>
+        <v>275300</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7064335137836647</v>
+        <v>0.7064335137836645</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.667512210969488</v>
+        <v>0.6657376469588655</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7495186417740088</v>
+        <v>0.7478111601187939</v>
       </c>
     </row>
     <row r="12">
@@ -4647,19 +4647,19 @@
         <v>24627</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16936</v>
+        <v>17457</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32729</v>
+        <v>34101</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1386655718393708</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09536126717248879</v>
+        <v>0.0982950841540878</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.184281981019525</v>
+        <v>0.1920098763240744</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -4668,19 +4668,19 @@
         <v>20670</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14814</v>
+        <v>15011</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27947</v>
+        <v>27740</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1311908237842808</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09402462783615541</v>
+        <v>0.0952750827560484</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1773787871739448</v>
+        <v>0.1760646164056458</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>67</v>
@@ -4689,19 +4689,19 @@
         <v>45297</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35602</v>
+        <v>36592</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56819</v>
+        <v>56966</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1351517464608316</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1062241522365606</v>
+        <v>0.1091790077001665</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1695301162433586</v>
+        <v>0.169966549156928</v>
       </c>
     </row>
     <row r="13">
@@ -4718,19 +4718,19 @@
         <v>82329</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70884</v>
+        <v>70219</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93158</v>
+        <v>92716</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4635587753350246</v>
+        <v>0.4635587753350245</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3991146742694571</v>
+        <v>0.3953751479601589</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5245332576084734</v>
+        <v>0.5220440833519983</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>106</v>
@@ -4739,19 +4739,19 @@
         <v>56780</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47323</v>
+        <v>48476</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65314</v>
+        <v>65808</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3603849589366537</v>
+        <v>0.3603849589366538</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3003611585260049</v>
+        <v>0.3076785226126538</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4145501549753809</v>
+        <v>0.4176850795553737</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>221</v>
@@ -4760,19 +4760,19 @@
         <v>139110</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124401</v>
+        <v>125291</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>153914</v>
+        <v>153819</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.415057505220045</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3711708165811578</v>
+        <v>0.3738255641914276</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4592295593414862</v>
+        <v>0.4589439411626796</v>
       </c>
     </row>
     <row r="14">
@@ -4789,19 +4789,19 @@
         <v>2351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5865</v>
+        <v>6500</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01323741484950435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003407762614435605</v>
+        <v>0.003462433995205513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03302281713322668</v>
+        <v>0.03659723820936998</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2128</v>
+        <v>1520</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002380439956845205</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01350631304152862</v>
+        <v>0.009644433981842993</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -4831,19 +4831,19 @@
         <v>2726</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>977</v>
+        <v>1002</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6102</v>
+        <v>6308</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0081336289251065</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002915836907919451</v>
+        <v>0.002990262446446509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01820497095048445</v>
+        <v>0.0188198441429792</v>
       </c>
     </row>
     <row r="15">
@@ -4860,19 +4860,19 @@
         <v>110413</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>99384</v>
+        <v>99377</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>121482</v>
+        <v>120636</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6216885035923227</v>
+        <v>0.6216885035923229</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5595857837682727</v>
+        <v>0.5595499218612849</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6840133356495185</v>
+        <v>0.6792485270450681</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>204</v>
@@ -4881,19 +4881,19 @@
         <v>113242</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>104541</v>
+        <v>104513</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>121488</v>
+        <v>120623</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7187458602729949</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6635191026444783</v>
+        <v>0.6633445572257504</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7710812735709784</v>
+        <v>0.7655909665081249</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>359</v>
@@ -4902,19 +4902,19 @@
         <v>223656</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>209749</v>
+        <v>209675</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>236902</v>
+        <v>236067</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6673144699212133</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6258212047496949</v>
+        <v>0.6255997323310502</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.706837160518576</v>
+        <v>0.7043458223631812</v>
       </c>
     </row>
     <row r="16">
@@ -4935,19 +4935,19 @@
         <v>11138</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6599</v>
+        <v>6330</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17802</v>
+        <v>17394</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1063797061309487</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06302729516249049</v>
+        <v>0.06045899409414368</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1700204359810384</v>
+        <v>0.1661246230460866</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -4956,19 +4956,19 @@
         <v>15859</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10738</v>
+        <v>10531</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22291</v>
+        <v>22249</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1328335611240395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08994132234984918</v>
+        <v>0.0882084140227289</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1867008857840508</v>
+        <v>0.186356500187154</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -4977,19 +4977,19 @@
         <v>26998</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20609</v>
+        <v>19930</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35646</v>
+        <v>36182</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1204735408876916</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09196365873391969</v>
+        <v>0.08893284507555636</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1590636128989651</v>
+        <v>0.1614572221724073</v>
       </c>
     </row>
     <row r="17">
@@ -5006,19 +5006,19 @@
         <v>57882</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50083</v>
+        <v>50013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>66564</v>
+        <v>65553</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5528119897674759</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4783214813743511</v>
+        <v>0.4776574543765123</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6357327079647038</v>
+        <v>0.6260701324106405</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -5027,19 +5027,19 @@
         <v>65917</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57389</v>
+        <v>57623</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75085</v>
+        <v>73695</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.552105300988323</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4806780688208921</v>
+        <v>0.4826353834945291</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6288949241228691</v>
+        <v>0.617250403374778</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>202</v>
@@ -5048,19 +5048,19 @@
         <v>123799</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112213</v>
+        <v>112182</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>134967</v>
+        <v>135760</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5524354868010679</v>
+        <v>0.5524354868010678</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5007325197446599</v>
+        <v>0.5005946279629536</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6022725371677751</v>
+        <v>0.6058111386261966</v>
       </c>
     </row>
     <row r="18">
@@ -5093,16 +5093,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3319</v>
+        <v>3267</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.005525403644701807</v>
+        <v>0.005525403644701806</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02779830956071363</v>
+        <v>0.02736373735818442</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3281</v>
+        <v>3308</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002943772314207944</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01463953179952342</v>
+        <v>0.0147601480314194</v>
       </c>
     </row>
     <row r="19">
@@ -5140,19 +5140,19 @@
         <v>69498</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61109</v>
+        <v>61716</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77588</v>
+        <v>77399</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6637485504603495</v>
+        <v>0.6637485504603494</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5836342068154434</v>
+        <v>0.5894285142862129</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7410188486585898</v>
+        <v>0.7392100197871654</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>118</v>
@@ -5161,19 +5161,19 @@
         <v>69058</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60347</v>
+        <v>60892</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77642</v>
+        <v>76986</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5784154902651227</v>
+        <v>0.5784154902651226</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5054501916321069</v>
+        <v>0.5100166348182149</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6503104241463353</v>
+        <v>0.6448197610072461</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>217</v>
@@ -5182,19 +5182,19 @@
         <v>138556</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126035</v>
+        <v>126051</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>149834</v>
+        <v>150443</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6182856094261284</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5624122031395812</v>
+        <v>0.562485550390161</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6686111443022826</v>
+        <v>0.6713292242895672</v>
       </c>
     </row>
     <row r="20">
@@ -5215,19 +5215,19 @@
         <v>76147</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62006</v>
+        <v>62191</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92223</v>
+        <v>92979</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1333879920354694</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.108616797543558</v>
+        <v>0.1089408782654963</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1615474696742403</v>
+        <v>0.1628728495461548</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>101</v>
@@ -5236,19 +5236,19 @@
         <v>62077</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51315</v>
+        <v>51240</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74737</v>
+        <v>73334</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1175110535443716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09713917287599012</v>
+        <v>0.09699602114165572</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1414757185727755</v>
+        <v>0.1388200890347921</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>188</v>
@@ -5257,19 +5257,19 @@
         <v>138224</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>120799</v>
+        <v>119734</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>158270</v>
+        <v>158406</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1257572380075109</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1099031108998274</v>
+        <v>0.1089342563724473</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1439951043049849</v>
+        <v>0.1441188683441796</v>
       </c>
     </row>
     <row r="21">
@@ -5286,19 +5286,19 @@
         <v>247403</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>225234</v>
+        <v>226166</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>268196</v>
+        <v>270498</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4333783030647581</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3945444742094213</v>
+        <v>0.3961772401011128</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4698015393320824</v>
+        <v>0.4738341152853153</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>332</v>
@@ -5307,19 +5307,19 @@
         <v>192185</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>174527</v>
+        <v>174602</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>210294</v>
+        <v>207797</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3638033980577172</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3303772610531127</v>
+        <v>0.3305191409810497</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3980833799104601</v>
+        <v>0.3933575329040588</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>644</v>
@@ -5328,19 +5328,19 @@
         <v>439588</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>411975</v>
+        <v>413734</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>466318</v>
+        <v>467833</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3999393005187075</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3748171074129124</v>
+        <v>0.3764173434622524</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4242581768479508</v>
+        <v>0.4256363689547534</v>
       </c>
     </row>
     <row r="22">
@@ -5357,19 +5357,19 @@
         <v>3475</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1215</v>
+        <v>1179</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8832</v>
+        <v>8756</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006087519537566367</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002127586739985627</v>
+        <v>0.002065606693984821</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01547192607764589</v>
+        <v>0.01533868323371247</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -5378,19 +5378,19 @@
         <v>2190</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>495</v>
+        <v>731</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5627</v>
+        <v>5506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004145852519126754</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0009378360470028811</v>
+        <v>0.001384139975969613</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01065133897816195</v>
+        <v>0.01042322719106568</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -5399,19 +5399,19 @@
         <v>5665</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2736</v>
+        <v>2714</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11051</v>
+        <v>10568</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005154317999359252</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002489087053507432</v>
+        <v>0.002468882456616387</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01005435383558533</v>
+        <v>0.00961512964777651</v>
       </c>
     </row>
     <row r="23">
@@ -5428,19 +5428,19 @@
         <v>366242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>347305</v>
+        <v>345801</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>385653</v>
+        <v>387640</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6415495852534819</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6083765060977885</v>
+        <v>0.6057431317623412</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6755513817084396</v>
+        <v>0.6790323291057185</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>626</v>
@@ -5449,19 +5449,19 @@
         <v>372902</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>355934</v>
+        <v>356125</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>388856</v>
+        <v>388024</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7058988816476025</v>
+        <v>0.7058988816476026</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6737786560590471</v>
+        <v>0.6741386403359227</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7360994463435225</v>
+        <v>0.7345240439931018</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1082</v>
@@ -5470,19 +5470,19 @@
         <v>739144</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>711142</v>
+        <v>712790</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>764044</v>
+        <v>765618</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6724770624198796</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6470004662734906</v>
+        <v>0.6484998118830496</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6951310442345715</v>
+        <v>0.6965629419224536</v>
       </c>
     </row>
     <row r="24">
